--- a/Docs/Sample.xlsx
+++ b/Docs/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\Desktop\Group\14.08.2022\Food-Catering\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFFBAD8-8C59-4E22-9EB8-A9F33D927A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F58004-A59C-4A6D-9116-2AACF0631F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="194">
   <si>
     <t>consumer_tbl</t>
   </si>
@@ -603,18 +603,6 @@
   </si>
   <si>
     <t>o3</t>
-  </si>
-  <si>
-    <t>many to many</t>
-  </si>
-  <si>
-    <t>a homemaker can post many advertisements</t>
-  </si>
-  <si>
-    <t>h4</t>
-  </si>
-  <si>
-    <t>a consumer can order food from multiple homemakers</t>
   </si>
 </sst>
 </file>
@@ -1681,9 +1669,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1039"/>
+  <dimension ref="A1:Z1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4473,121 +4463,57 @@
       <c r="A78" s="25"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>195</v>
-      </c>
+      <c r="A79" s="26"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="26"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
-      <c r="B88" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="26"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -7367,57 +7293,6 @@
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" s="26"/>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1023" s="26"/>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1024" s="26"/>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1025" s="26"/>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1026" s="26"/>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027" s="26"/>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1028" s="26"/>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1029" s="26"/>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1030" s="26"/>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1031" s="26"/>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1032" s="26"/>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1033" s="26"/>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1034" s="26"/>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035" s="26"/>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1036" s="26"/>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1037" s="26"/>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1038" s="26"/>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1039" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Sample.xlsx
+++ b/Docs/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\Desktop\Group\14.08.2022\Food-Catering\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F58004-A59C-4A6D-9116-2AACF0631F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4B7F4D-FFE8-45CB-A5AC-13148A7634D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1671,9 +1671,7 @@
   </sheetPr>
   <dimension ref="A1:Z1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
